--- a/output/fit_clients/fit_round_232.xlsx
+++ b/output/fit_clients/fit_round_232.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2208819081.390777</v>
+        <v>2329841412.792769</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1119857112006476</v>
+        <v>0.09950727250364741</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04219723939611048</v>
+        <v>0.040005932702307</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1104409564.374542</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1648008423.928872</v>
+        <v>2362621629.800879</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1231871896154374</v>
+        <v>0.1214335326228505</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03995913472836344</v>
+        <v>0.04390859687561492</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>824004197.497932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3733240313.996912</v>
+        <v>3989456731.223313</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1381643957473435</v>
+        <v>0.1427034389233714</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0303665738606977</v>
+        <v>0.02957817590559185</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>84</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1866620152.276914</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3170246977.751651</v>
+        <v>3013290950.800424</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07773155431385415</v>
+        <v>0.06693055724366068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0404576295815283</v>
+        <v>0.03657382574634374</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1585123547.474339</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2736949538.252923</v>
+        <v>2714128871.379192</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1108900935927407</v>
+        <v>0.1424591020762386</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0521579216260656</v>
+        <v>0.05296348986395663</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>39</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1368474718.953035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2491577630.973102</v>
+        <v>2898985690.199266</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06714185929310117</v>
+        <v>0.06620175460125531</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03126804058030448</v>
+        <v>0.03183002114515635</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>71</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1245788829.296458</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3897825699.451177</v>
+        <v>3236825191.573292</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1598665013988636</v>
+        <v>0.147720590247673</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02342419510066674</v>
+        <v>0.02237845421997771</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>74</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1948912999.004675</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2271014351.169367</v>
+        <v>1562475379.099459</v>
       </c>
       <c r="F9" t="n">
-        <v>0.12776632670274</v>
+        <v>0.1383248211124042</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02590850727677547</v>
+        <v>0.02267702488206224</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1135507164.569716</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5929709671.943918</v>
+        <v>4131783321.081255</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2004696976727227</v>
+        <v>0.1403998618022018</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03342090428512205</v>
+        <v>0.05458454024729314</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>98</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2964855007.259651</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3142565139.238627</v>
+        <v>3301540995.088735</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1169492451254116</v>
+        <v>0.1632285459241004</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03154062517259786</v>
+        <v>0.03326259265779288</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>96</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1571282522.497168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2834389305.730502</v>
+        <v>2901005118.945379</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1204306200201578</v>
+        <v>0.190319282630271</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04174227810847052</v>
+        <v>0.04206836900933179</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>81</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1417194655.701688</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4534760675.953939</v>
+        <v>4939761486.682816</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07811878083139949</v>
+        <v>0.06926467189557219</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02766402880102454</v>
+        <v>0.03036975915370632</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>78</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2267380365.72385</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3720433482.446047</v>
+        <v>3051699610.995543</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1499093122462784</v>
+        <v>0.1881324368641257</v>
       </c>
       <c r="G14" t="n">
-        <v>0.039162747009822</v>
+        <v>0.03982801289656039</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>76</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1860216723.487397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1156350902.309427</v>
+        <v>1541390648.248499</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07308403381207454</v>
+        <v>0.09535274040074407</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04303206419154559</v>
+        <v>0.04215759101921267</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>578175458.7267301</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1870098055.230548</v>
+        <v>2406292662.872347</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08182660457613239</v>
+        <v>0.1050124516535293</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04435746007423036</v>
+        <v>0.04444155335752219</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>935049114.6891675</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4174492263.856658</v>
+        <v>4185181250.083042</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1224670517317467</v>
+        <v>0.1587026173544164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05025295100443639</v>
+        <v>0.0393109362175519</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>68</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2087246157.913799</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3354240807.497797</v>
+        <v>2875521955.138288</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1432436444891259</v>
+        <v>0.1178549679758069</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02304623540987762</v>
+        <v>0.02930146187003009</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>76</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1677120408.311392</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>828495159.5115458</v>
+        <v>974689590.2365061</v>
       </c>
       <c r="F19" t="n">
-        <v>0.183839016853231</v>
+        <v>0.1674335648409156</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02245575737017299</v>
+        <v>0.0207034404192346</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>414247567.2679756</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2482607278.967891</v>
+        <v>2332597558.273072</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1127038183035671</v>
+        <v>0.1530457437937283</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02077999642147621</v>
+        <v>0.02500729928728759</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1241303614.413357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1955347836.817126</v>
+        <v>2535835367.787951</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1008000567887813</v>
+        <v>0.07961594515445825</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02978680292974635</v>
+        <v>0.04209603946849409</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>977673958.6395994</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3954588733.312057</v>
+        <v>2756932919.74516</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1295985160867662</v>
+        <v>0.1335382356971974</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03939451455751481</v>
+        <v>0.03507148679830296</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1977294371.005969</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1415501621.580987</v>
+        <v>1250374028.530369</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1734316332216655</v>
+        <v>0.1705361184247853</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05414109312014268</v>
+        <v>0.036238510852316</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>707750810.9478459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2796793351.888128</v>
+        <v>3924255283.336242</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1094228310654644</v>
+        <v>0.09832770497363691</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03753325315554976</v>
+        <v>0.03662241586186796</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>68</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1398396724.848408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1464278946.436442</v>
+        <v>1221603132.756952</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0986887921992036</v>
+        <v>0.1025201764855999</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02759035672906232</v>
+        <v>0.02925076008103676</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>732139430.3667548</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>993837326.5352018</v>
+        <v>890919100.5175657</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08109298857079833</v>
+        <v>0.08853508447610989</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0307930416678829</v>
+        <v>0.03502293352676693</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>496918633.8110523</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3235492625.578396</v>
+        <v>3501547546.549744</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1289011011412079</v>
+        <v>0.1528233135260194</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01780071990994538</v>
+        <v>0.02562945311495922</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1617746360.929558</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3153190503.952374</v>
+        <v>2357321317.342617</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1303469760490836</v>
+        <v>0.1099834206883474</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04612464374705277</v>
+        <v>0.03116858924339666</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>74</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1576595276.489146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3910796024.231131</v>
+        <v>5081175699.868573</v>
       </c>
       <c r="F29" t="n">
-        <v>0.11258230601252</v>
+        <v>0.1145555775646691</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04536718839079185</v>
+        <v>0.04382968173121174</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>103</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1955398035.116445</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1806774862.864451</v>
+        <v>1845510605.264888</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1124944821791943</v>
+        <v>0.1181894910922985</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03320869807789355</v>
+        <v>0.02833922914260045</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>903387446.8739542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1063433807.630041</v>
+        <v>999106538.9711426</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08744486172990384</v>
+        <v>0.09541228168479958</v>
       </c>
       <c r="G31" t="n">
-        <v>0.050105757434273</v>
+        <v>0.03426433142128742</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>531716887.4209265</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1263777815.909693</v>
+        <v>1751578010.733725</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1173592402415098</v>
+        <v>0.09800448071689925</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02340005673729339</v>
+        <v>0.0382252596423747</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>631888927.3641903</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2236231689.583662</v>
+        <v>2438982150.142066</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1264463552542934</v>
+        <v>0.1650113585432345</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05650480755605557</v>
+        <v>0.04745364299542669</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>68</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1118115905.438815</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1451042703.197707</v>
+        <v>1059965754.956445</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1176567388872029</v>
+        <v>0.09196071142643827</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02583317453828348</v>
+        <v>0.0199877161310987</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>725521315.4411691</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1326578293.511832</v>
+        <v>926141814.0704563</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08647428640905749</v>
+        <v>0.08388257401725399</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03970565422220568</v>
+        <v>0.02923850364139513</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>663289093.7238189</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2356721329.74893</v>
+        <v>2947870924.515232</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1387755709672885</v>
+        <v>0.1789597126976703</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02292472560864392</v>
+        <v>0.02624548517257313</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>58</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1178360698.296304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2472434334.281223</v>
+        <v>1857945773.272779</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1015511854055015</v>
+        <v>0.09107630794318432</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04215468996801782</v>
+        <v>0.03378267855937882</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>61</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1236217259.390145</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1489332517.209971</v>
+        <v>1736584251.453636</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1123403245859917</v>
+        <v>0.1036303081867786</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02834472510915157</v>
+        <v>0.02470373820646987</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>744666309.3577775</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1553498098.997558</v>
+        <v>1801406294.106308</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1179757000442667</v>
+        <v>0.1306418226418193</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0277712715722711</v>
+        <v>0.03063804140203922</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>776749111.8310722</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1737642732.685545</v>
+        <v>1400548122.888643</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1080540271794154</v>
+        <v>0.1199437452785868</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05212165713946624</v>
+        <v>0.03978657121614054</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>868821273.0533146</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2885222146.441552</v>
+        <v>2639545409.305842</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1290857933058691</v>
+        <v>0.1524975064486546</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03313111467306053</v>
+        <v>0.03061357683781799</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>55</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1442611060.774669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3408633508.361659</v>
+        <v>4133438474.755507</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08650112242701587</v>
+        <v>0.0980166734075804</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03258809184059962</v>
+        <v>0.04020128414971309</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1704316742.755599</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1997446115.232496</v>
+        <v>2246080977.435927</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2044014997614991</v>
+        <v>0.1539915369064587</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02074408091058749</v>
+        <v>0.02235750579626366</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>81</v>
-      </c>
-      <c r="J43" t="n">
-        <v>998723156.806693</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1514180054.050996</v>
+        <v>1519542571.603189</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08617546282043766</v>
+        <v>0.09214561561088265</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02715871680490694</v>
+        <v>0.0228080666251139</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>757090036.4128033</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2040755933.896117</v>
+        <v>1706763964.143422</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1517615817761335</v>
+        <v>0.1261902213068202</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04700662840877302</v>
+        <v>0.03432234162059858</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1020377961.889149</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5256340340.569415</v>
+        <v>3603248478.56272</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1641087139113173</v>
+        <v>0.115315835179181</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05327517520396427</v>
+        <v>0.05441965176334372</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>83</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2628170211.745812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3442875479.219569</v>
+        <v>3833935324.885223</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1411814950478689</v>
+        <v>0.1854843802414372</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05062085983973944</v>
+        <v>0.03956849965469719</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>62</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1721437707.157199</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2919922319.457746</v>
+        <v>3168736345.661199</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1012247011086277</v>
+        <v>0.1018943676571069</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03300114089940814</v>
+        <v>0.03248890118832277</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>76</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1459961256.861182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1281627022.80719</v>
+        <v>1217800883.416352</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1638113955822581</v>
+        <v>0.1891024845570834</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03150308083938896</v>
+        <v>0.02886166243084343</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>640813577.3791057</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3145093350.623363</v>
+        <v>2800743603.832572</v>
       </c>
       <c r="F50" t="n">
-        <v>0.141094339794902</v>
+        <v>0.1432096850496696</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03325989336988952</v>
+        <v>0.05147823268329553</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>79</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1572546724.824931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1147926093.104958</v>
+        <v>1057061129.494934</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1767323657475105</v>
+        <v>0.1778922340778262</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03606312123080008</v>
+        <v>0.0477178822059891</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>573963106.5193948</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5086495183.278912</v>
+        <v>4304966663.555411</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1090201712608925</v>
+        <v>0.1122091095178003</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05949249029349416</v>
+        <v>0.05928168884038375</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>96</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2543247584.156471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2903118026.732606</v>
+        <v>3221297948.387388</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1320728191458779</v>
+        <v>0.1243406381224508</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02446572842842824</v>
+        <v>0.02903920388689423</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>66</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1451559052.477537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4521992105.820956</v>
+        <v>3864534272.492639</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1108893283589206</v>
+        <v>0.1053250995470717</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04914051067188595</v>
+        <v>0.03584695232559824</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>75</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2260996157.971146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3753127684.189707</v>
+        <v>4222550448.709021</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1682637048673283</v>
+        <v>0.2202476910865379</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03194705065871958</v>
+        <v>0.02802713000050738</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1876563806.085339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1669761293.042634</v>
+        <v>1811428645.068081</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1252203536639702</v>
+        <v>0.1312716238474509</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0480526450487842</v>
+        <v>0.04963866039302217</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>834880663.6243567</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4386824135.278649</v>
+        <v>2804820651.266717</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1628104725534925</v>
+        <v>0.1203194690995831</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02507649223237029</v>
+        <v>0.01900002869614337</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>74</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2193412188.475276</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1362301381.346019</v>
+        <v>1243041030.916434</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1230816033418601</v>
+        <v>0.1670798634584279</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02537848614737716</v>
+        <v>0.02925694525069571</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>681150734.3612118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4255880960.948086</v>
+        <v>5259043987.76764</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1240858137207225</v>
+        <v>0.08532449374556372</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03279452924597482</v>
+        <v>0.03729154637478436</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2127940444.076043</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2916184265.732778</v>
+        <v>2328906242.765203</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1358724700375375</v>
+        <v>0.1614703860590055</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02900390161278307</v>
+        <v>0.03066087290643968</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>72</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1458092194.412627</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3117986046.912122</v>
+        <v>2331667389.703626</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1101887355153426</v>
+        <v>0.1264140466537014</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02760527950340521</v>
+        <v>0.02347612611200257</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>80</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1558992992.787327</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1522034423.944215</v>
+        <v>1976392243.165209</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1277270971200315</v>
+        <v>0.1344035819806978</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03611541900462455</v>
+        <v>0.04182814422197006</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>761017198.3430274</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3981736778.82348</v>
+        <v>4857379906.679442</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09999575169977278</v>
+        <v>0.08284361062122017</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0456906473476329</v>
+        <v>0.03741779955342497</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>66</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1990868452.591272</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4082817082.673258</v>
+        <v>4520647077.43425</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1283057949265736</v>
+        <v>0.1764905985762796</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03272635310656233</v>
+        <v>0.03137902445140515</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>72</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2041408583.01446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4938286775.876708</v>
+        <v>5746049978.856481</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1204699771981915</v>
+        <v>0.1732245865594061</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02391932551108946</v>
+        <v>0.0239942804481944</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>84</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2469143350.523446</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4225792113.529979</v>
+        <v>4679868553.954449</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1331847676200535</v>
+        <v>0.1118535135187427</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03988692864305947</v>
+        <v>0.04398808123374362</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>68</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2112896042.464026</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2143626037.954313</v>
+        <v>2840205180.755221</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08798387737783676</v>
+        <v>0.07877040579252363</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04830568085031293</v>
+        <v>0.03385119988179696</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>75</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1071813109.76246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5766072090.196673</v>
+        <v>4937737218.655624</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1324767775327618</v>
+        <v>0.116440972230365</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0495668566711898</v>
+        <v>0.04598053023368238</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>78</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2883036147.897222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2342920655.115764</v>
+        <v>1917248552.106445</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1746394582538634</v>
+        <v>0.1209443258733126</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04421312182062308</v>
+        <v>0.04312981307102867</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1171460376.823772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2865643910.521235</v>
+        <v>2256943742.833912</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08177473801417542</v>
+        <v>0.07341834782827598</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03315495773142993</v>
+        <v>0.03465991326535061</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>66</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1432821923.456145</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3636507740.01046</v>
+        <v>4562554951.957072</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1226134926308732</v>
+        <v>0.1516788920486063</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02112855116698083</v>
+        <v>0.02507243578747901</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>85</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1818253873.935611</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1667890536.710238</v>
+        <v>1678643288.162853</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06792575127992416</v>
+        <v>0.08930611728780606</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03440909391079107</v>
+        <v>0.03969767679698784</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>833945268.249824</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2575967828.361221</v>
+        <v>3190483958.923728</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06911569001908095</v>
+        <v>0.09922517940479765</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03192490606696274</v>
+        <v>0.04633229765423335</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>91</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1287983948.986598</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3968225003.652957</v>
+        <v>3712462367.383439</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1124377672420484</v>
+        <v>0.12823281281073</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02249979641056423</v>
+        <v>0.02696293082044371</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>79</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1984112483.472879</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1896482440.999302</v>
+        <v>1921351443.664619</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1042122768584127</v>
+        <v>0.1125777383957143</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03489743764200633</v>
+        <v>0.02296928765552815</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>948241194.3468614</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3953839901.605284</v>
+        <v>3721834235.900118</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08345669682395697</v>
+        <v>0.1199050963760346</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03139680981397058</v>
+        <v>0.02721367435570374</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1976919933.597893</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1839830651.145853</v>
+        <v>1677887543.538191</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1557677044803354</v>
+        <v>0.1475239695740167</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02957734533984776</v>
+        <v>0.02420226000805725</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>919915363.4624743</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3282678107.64607</v>
+        <v>4598267597.81251</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1179542032299101</v>
+        <v>0.1287887545986197</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03674428754021173</v>
+        <v>0.0528577836329826</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>81</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1641339070.848641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1489480794.711698</v>
+        <v>1720732600.637965</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1385788187949662</v>
+        <v>0.1762553963115263</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03503493837685833</v>
+        <v>0.03333342091935285</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>744740429.7236341</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4831737318.56411</v>
+        <v>4249140855.924977</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07413362891479952</v>
+        <v>0.09013253068095838</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02621550997756477</v>
+        <v>0.0343991079720724</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>48</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2415868700.106701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3259494675.901314</v>
+        <v>3616132937.57865</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1327596832287429</v>
+        <v>0.09610751271729423</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02699910562651398</v>
+        <v>0.02808813821672631</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1629747273.665431</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4604800342.910616</v>
+        <v>4914305516.413717</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2070772393891228</v>
+        <v>0.1461099947971714</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02129493111678813</v>
+        <v>0.02271633796212146</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2302400177.457929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2348843324.710884</v>
+        <v>1802081424.60745</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1161983105964187</v>
+        <v>0.1234912904473628</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03790802905361328</v>
+        <v>0.0364745146085714</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1174421691.074912</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2240810572.364905</v>
+        <v>2411318866.4725</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07442715224207409</v>
+        <v>0.1134724960481813</v>
       </c>
       <c r="G84" t="n">
-        <v>0.046012823107968</v>
+        <v>0.04703264270707603</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1120405255.890242</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2630868116.025875</v>
+        <v>3293334561.13673</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1422079335013259</v>
+        <v>0.1542379531352866</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04845279237820877</v>
+        <v>0.04359197695241304</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>88</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1315434077.386041</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2483246929.422359</v>
+        <v>1919476727.595245</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1315560612697938</v>
+        <v>0.1630757074243572</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02308324261056201</v>
+        <v>0.02104127538335446</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1241623559.523334</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1022467158.829251</v>
+        <v>1467684985.847461</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1223208743382145</v>
+        <v>0.1863679013450361</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03623999916765271</v>
+        <v>0.04384015581959853</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>511233589.4840919</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2835465451.086008</v>
+        <v>3029258599.297604</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1326893984543895</v>
+        <v>0.1734544773637065</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03248482163060484</v>
+        <v>0.03407605746646316</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>91</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1417732739.723755</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2934714414.933811</v>
+        <v>2960249396.051948</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1166798680560485</v>
+        <v>0.1329629920428059</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03789883895446217</v>
+        <v>0.02873785200607693</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>79</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1467357250.341515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1977093186.726638</v>
+        <v>1610234229.791514</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1110284891544154</v>
+        <v>0.08846588650646821</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05008708792494559</v>
+        <v>0.03738914037827981</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>988546659.389196</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1645166392.935797</v>
+        <v>1386925128.664935</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1801418809078069</v>
+        <v>0.1940828266821615</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04223530870886784</v>
+        <v>0.06048855420064496</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>822583216.0225446</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2639794091.035777</v>
+        <v>2439052492.959348</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09384646661762305</v>
+        <v>0.09351697676889076</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04251588074128605</v>
+        <v>0.04770965853754302</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>58</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1319897039.99844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4940308628.866652</v>
+        <v>4261747790.699401</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08575299819378657</v>
+        <v>0.1413532381933667</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04575119299382348</v>
+        <v>0.0384387584611587</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2470154254.239647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2307499049.940497</v>
+        <v>1729438206.978465</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1608637381407558</v>
+        <v>0.1539241401707322</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03105587932941697</v>
+        <v>0.03472181884198023</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1153749563.311226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2325166509.69824</v>
+        <v>2335357393.112824</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08329666956176635</v>
+        <v>0.09095231745573112</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0382166985666042</v>
+        <v>0.05100529192719445</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>57</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1162583303.652139</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1948103640.600675</v>
+        <v>1536691149.129372</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1182201111205746</v>
+        <v>0.1289536096417566</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04281916081668203</v>
+        <v>0.04352394872344904</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>974051812.8028938</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4788578332.220382</v>
+        <v>4167062350.44958</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1399008698682317</v>
+        <v>0.146026373685191</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02016422128865443</v>
+        <v>0.02258156367042213</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>76</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2394289285.900499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3774677184.446865</v>
+        <v>2424193530.917559</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09750637734337404</v>
+        <v>0.1164031045490351</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02997429007571997</v>
+        <v>0.0309768809633502</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>61</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1887338629.431834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2306106212.271825</v>
+        <v>2993078817.331216</v>
       </c>
       <c r="F99" t="n">
-        <v>0.092958584397226</v>
+        <v>0.09823767120181298</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0291317806998729</v>
+        <v>0.02299515048727499</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>73</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1153053041.807373</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3950866855.008413</v>
+        <v>3844035721.599167</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1427521868071615</v>
+        <v>0.1465171302054</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02607006487767799</v>
+        <v>0.02022935764499337</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1975433494.252218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2542245355.910006</v>
+        <v>3117197054.856094</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2044580024372143</v>
+        <v>0.2218125899171418</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04647906169853446</v>
+        <v>0.03664875327862072</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>94</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1271122706.547983</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_232.xlsx
+++ b/output/fit_clients/fit_round_232.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2329841412.792769</v>
+        <v>2398873427.120292</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09950727250364741</v>
+        <v>0.08661762033257059</v>
       </c>
       <c r="G2" t="n">
-        <v>0.040005932702307</v>
+        <v>0.04538471216888051</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2362621629.800879</v>
+        <v>1812843157.562678</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1214335326228505</v>
+        <v>0.1522950922884348</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04390859687561492</v>
+        <v>0.03959613728533844</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3989456731.223313</v>
+        <v>4812883285.082774</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1427034389233714</v>
+        <v>0.1152628135417404</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02957817590559185</v>
+        <v>0.03506073263535009</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3013290950.800424</v>
+        <v>2560266661.513401</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06693055724366068</v>
+        <v>0.07707674341787023</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03657382574634374</v>
+        <v>0.04675048674517834</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2714128871.379192</v>
+        <v>2398007348.632555</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1424591020762386</v>
+        <v>0.1380612003132519</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05296348986395663</v>
+        <v>0.05351935849172522</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2898985690.199266</v>
+        <v>2885667983.67799</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06620175460125531</v>
+        <v>0.07326484186988298</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03183002114515635</v>
+        <v>0.04636651225481352</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3236825191.573292</v>
+        <v>3144954660.063397</v>
       </c>
       <c r="F8" t="n">
-        <v>0.147720590247673</v>
+        <v>0.191289795975954</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02237845421997771</v>
+        <v>0.02313380785887777</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1562475379.099459</v>
+        <v>1485825712.963522</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1383248211124042</v>
+        <v>0.1849043016256775</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02267702488206224</v>
+        <v>0.02850988541526756</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4131783321.081255</v>
+        <v>5429661693.079113</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1403998618022018</v>
+        <v>0.1346635224454164</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05458454024729314</v>
+        <v>0.03434309779275985</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3301540995.088735</v>
+        <v>3626923774.082184</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1632285459241004</v>
+        <v>0.124522334967702</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03326259265779288</v>
+        <v>0.0327687244581032</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2901005118.945379</v>
+        <v>2525399760.975455</v>
       </c>
       <c r="F12" t="n">
-        <v>0.190319282630271</v>
+        <v>0.1995816273579124</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04206836900933179</v>
+        <v>0.04339543360281831</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4939761486.682816</v>
+        <v>4821156003.184998</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06926467189557219</v>
+        <v>0.0932923708573701</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03036975915370632</v>
+        <v>0.02626437444876624</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3051699610.995543</v>
+        <v>2870633572.263981</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1881324368641257</v>
+        <v>0.1287332477979234</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03982801289656039</v>
+        <v>0.03492031862669257</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1541390648.248499</v>
+        <v>1198097011.956954</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09535274040074407</v>
+        <v>0.1010638409554848</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04215759101921267</v>
+        <v>0.03109523767681382</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2406292662.872347</v>
+        <v>2885790350.167806</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1050124516535293</v>
+        <v>0.1058224713251788</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04444155335752219</v>
+        <v>0.03492916683788321</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4185181250.083042</v>
+        <v>3233022249.526556</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1587026173544164</v>
+        <v>0.1617699024411133</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0393109362175519</v>
+        <v>0.04289394350534162</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2875521955.138288</v>
+        <v>2447193269.921588</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1178549679758069</v>
+        <v>0.1762859435966385</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02930146187003009</v>
+        <v>0.02941759874377032</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>974689590.2365061</v>
+        <v>854658520.0788727</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1674335648409156</v>
+        <v>0.1198829785907545</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0207034404192346</v>
+        <v>0.02190877060621842</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2332597558.273072</v>
+        <v>2676019728.481589</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1530457437937283</v>
+        <v>0.1201765475701982</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02500729928728759</v>
+        <v>0.02655962975093545</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2535835367.787951</v>
+        <v>1709730621.794092</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07961594515445825</v>
+        <v>0.09264241807388461</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04209603946849409</v>
+        <v>0.04022085431611526</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2756932919.74516</v>
+        <v>2553186827.189406</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1335382356971974</v>
+        <v>0.142117631260911</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03507148679830296</v>
+        <v>0.05285589596041507</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1250374028.530369</v>
+        <v>1313764491.445457</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1705361184247853</v>
+        <v>0.161930263016609</v>
       </c>
       <c r="G23" t="n">
-        <v>0.036238510852316</v>
+        <v>0.03994018012638725</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3924255283.336242</v>
+        <v>3028380827.046471</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09832770497363691</v>
+        <v>0.1091269964528537</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03662241586186796</v>
+        <v>0.0264745989138415</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1221603132.756952</v>
+        <v>1234696816.189148</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1025201764855999</v>
+        <v>0.08294727338128836</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02925076008103676</v>
+        <v>0.02234368049123419</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>890919100.5175657</v>
+        <v>881005276.6250167</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08853508447610989</v>
+        <v>0.1018850015219116</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03502293352676693</v>
+        <v>0.03074765615062934</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3501547546.549744</v>
+        <v>4663620433.718313</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1528233135260194</v>
+        <v>0.1038980047628989</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02562945311495922</v>
+        <v>0.01764992084562417</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2357321317.342617</v>
+        <v>2559537357.476992</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1099834206883474</v>
+        <v>0.1219999845419905</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03116858924339666</v>
+        <v>0.04378827272231992</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5081175699.868573</v>
+        <v>4291692370.151661</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1145555775646691</v>
+        <v>0.1011039228487441</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04382968173121174</v>
+        <v>0.04280627421831142</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1845510605.264888</v>
+        <v>2368320523.11825</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1181894910922985</v>
+        <v>0.1025750534667383</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02833922914260045</v>
+        <v>0.0373261977759677</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>999106538.9711426</v>
+        <v>1243067358.343294</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09541228168479958</v>
+        <v>0.07428781548365339</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03426433142128742</v>
+        <v>0.04665683298154735</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1751578010.733725</v>
+        <v>1458403322.637665</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09800448071689925</v>
+        <v>0.09139304988588647</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0382252596423747</v>
+        <v>0.03508043412996477</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2438982150.142066</v>
+        <v>2744544499.109853</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1650113585432345</v>
+        <v>0.2091577611954642</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04745364299542669</v>
+        <v>0.05327386496474421</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1059965754.956445</v>
+        <v>1005049548.463809</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09196071142643827</v>
+        <v>0.09260987915931325</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0199877161310987</v>
+        <v>0.02457930065691025</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>926141814.0704563</v>
+        <v>954977383.8896704</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08388257401725399</v>
+        <v>0.09511935473375864</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02923850364139513</v>
+        <v>0.03011469241291065</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2947870924.515232</v>
+        <v>2887005951.448715</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1789597126976703</v>
+        <v>0.1568999487709256</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02624548517257313</v>
+        <v>0.02294276522632601</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1857945773.272779</v>
+        <v>2059663215.059106</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09107630794318432</v>
+        <v>0.06922697195309052</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03378267855937882</v>
+        <v>0.03739917357798887</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1736584251.453636</v>
+        <v>1342153110.118983</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1036303081867786</v>
+        <v>0.1125381721638155</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02470373820646987</v>
+        <v>0.03465439467774013</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1801406294.106308</v>
+        <v>2121605834.570427</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1306418226418193</v>
+        <v>0.1248914373193755</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03063804140203922</v>
+        <v>0.03253728318344836</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1400548122.888643</v>
+        <v>1429410908.443867</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1199437452785868</v>
+        <v>0.1507892994532358</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03978657121614054</v>
+        <v>0.0434337479953286</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2639545409.305842</v>
+        <v>2821253611.502184</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1524975064486546</v>
+        <v>0.1535456901192317</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03061357683781799</v>
+        <v>0.03748785027048727</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4133438474.755507</v>
+        <v>3787108131.220546</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0980166734075804</v>
+        <v>0.08874310230529653</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04020128414971309</v>
+        <v>0.04338750136343394</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2246080977.435927</v>
+        <v>2643178940.870343</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1539915369064587</v>
+        <v>0.1787788337222517</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02235750579626366</v>
+        <v>0.02371032808473602</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1519542571.603189</v>
+        <v>1558223316.999308</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09214561561088265</v>
+        <v>0.06896396384875583</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0228080666251139</v>
+        <v>0.02243795721803047</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1706763964.143422</v>
+        <v>1910622304.275689</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1261902213068202</v>
+        <v>0.1763435886997231</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03432234162059858</v>
+        <v>0.04848558891961481</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3603248478.56272</v>
+        <v>3781628009.430877</v>
       </c>
       <c r="F46" t="n">
-        <v>0.115315835179181</v>
+        <v>0.129402808731102</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05441965176334372</v>
+        <v>0.05361647519582248</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3833935324.885223</v>
+        <v>4886620244.542937</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1854843802414372</v>
+        <v>0.1684017649531771</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03956849965469719</v>
+        <v>0.05781195422347593</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3168736345.661199</v>
+        <v>3573488883.458851</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1018943676571069</v>
+        <v>0.08264184519578925</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03248890118832277</v>
+        <v>0.03551085576482636</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1217800883.416352</v>
+        <v>1641398705.778013</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1891024845570834</v>
+        <v>0.1646629677174747</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02886166243084343</v>
+        <v>0.04444864463801002</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2800743603.832572</v>
+        <v>4221582368.179296</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1432096850496696</v>
+        <v>0.1372142427645314</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05147823268329553</v>
+        <v>0.03756548253580462</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1057061129.494934</v>
+        <v>1134096562.462172</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1778922340778262</v>
+        <v>0.1530127590711422</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0477178822059891</v>
+        <v>0.03616423164600444</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4304966663.555411</v>
+        <v>4145155493.455267</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1122091095178003</v>
+        <v>0.1056041153263909</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05928168884038375</v>
+        <v>0.05610919608912755</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3221297948.387388</v>
+        <v>3345383771.1219</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1243406381224508</v>
+        <v>0.125394913438009</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02903920388689423</v>
+        <v>0.02978541045577479</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3864534272.492639</v>
+        <v>4109832466.074569</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1053250995470717</v>
+        <v>0.1687428960666992</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03584695232559824</v>
+        <v>0.03247042042283085</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4222550448.709021</v>
+        <v>3341873626.314206</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2202476910865379</v>
+        <v>0.2108245884400653</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02802713000050738</v>
+        <v>0.02884324211477736</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1811428645.068081</v>
+        <v>1439856731.939939</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1312716238474509</v>
+        <v>0.1261108217447689</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04963866039302217</v>
+        <v>0.05319387534833335</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2804820651.266717</v>
+        <v>2903373313.806708</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1203194690995831</v>
+        <v>0.1751065793443845</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01900002869614337</v>
+        <v>0.02152073299138933</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1243041030.916434</v>
+        <v>1646296983.965205</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1670798634584279</v>
+        <v>0.1932706434583814</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02925694525069571</v>
+        <v>0.02916374243134743</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5259043987.76764</v>
+        <v>4098608973.466802</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08532449374556372</v>
+        <v>0.1266637972140957</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03729154637478436</v>
+        <v>0.03732620842379727</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2328906242.765203</v>
+        <v>3570160105.119227</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1614703860590055</v>
+        <v>0.158133686871481</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03066087290643968</v>
+        <v>0.02322497438043145</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2331667389.703626</v>
+        <v>2207449175.382782</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1264140466537014</v>
+        <v>0.1237093737961063</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02347612611200257</v>
+        <v>0.02520624077855997</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1976392243.165209</v>
+        <v>1622945144.120797</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1344035819806978</v>
+        <v>0.1913598763023137</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04182814422197006</v>
+        <v>0.04755645419197038</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4857379906.679442</v>
+        <v>4045890151.100103</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08284361062122017</v>
+        <v>0.07740078240662755</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03741779955342497</v>
+        <v>0.0450736076242329</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4520647077.43425</v>
+        <v>5401149601.179227</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1764905985762796</v>
+        <v>0.1844846099975886</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03137902445140515</v>
+        <v>0.03272017819209991</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5746049978.856481</v>
+        <v>5632231529.672043</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1732245865594061</v>
+        <v>0.1197585469026789</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0239942804481944</v>
+        <v>0.02929635976078349</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4679868553.954449</v>
+        <v>4187514236.470075</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1118535135187427</v>
+        <v>0.1419029038542746</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04398808123374362</v>
+        <v>0.03825190198171936</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2840205180.755221</v>
+        <v>3315442382.690212</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07877040579252363</v>
+        <v>0.0840843176445714</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03385119988179696</v>
+        <v>0.03814091609905838</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4937737218.655624</v>
+        <v>5138479683.681287</v>
       </c>
       <c r="F68" t="n">
-        <v>0.116440972230365</v>
+        <v>0.1471473925737097</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04598053023368238</v>
+        <v>0.04173060733486528</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1917248552.106445</v>
+        <v>2093872573.978781</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1209443258733126</v>
+        <v>0.1717220675962972</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04312981307102867</v>
+        <v>0.03654343410671781</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2256943742.833912</v>
+        <v>3019971714.287552</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07341834782827598</v>
+        <v>0.1033642686679813</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03465991326535061</v>
+        <v>0.03677934923375627</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4562554951.957072</v>
+        <v>5256109647.04268</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1516788920486063</v>
+        <v>0.118189295505289</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02507243578747901</v>
+        <v>0.02156788220292085</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1678643288.162853</v>
+        <v>1991485294.542714</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08930611728780606</v>
+        <v>0.07442826082435426</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03969767679698784</v>
+        <v>0.04842177397159599</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3190483958.923728</v>
+        <v>2659358908.384831</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09922517940479765</v>
+        <v>0.07387637550206635</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04633229765423335</v>
+        <v>0.0456578489004882</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3712462367.383439</v>
+        <v>3648815884.733327</v>
       </c>
       <c r="F74" t="n">
-        <v>0.12823281281073</v>
+        <v>0.1710980437173443</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02696293082044371</v>
+        <v>0.03229170758533664</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1921351443.664619</v>
+        <v>1586933146.978518</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1125777383957143</v>
+        <v>0.1531680671805784</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02296928765552815</v>
+        <v>0.03689720615593291</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3721834235.900118</v>
+        <v>4461674732.323925</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1199050963760346</v>
+        <v>0.0957224220939869</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02721367435570374</v>
+        <v>0.03196260714069682</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1677887543.538191</v>
+        <v>1629269639.06568</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1475239695740167</v>
+        <v>0.1473604839116923</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02420226000805725</v>
+        <v>0.02040683464901324</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4598267597.81251</v>
+        <v>2936767223.544082</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1287887545986197</v>
+        <v>0.1248185243035443</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0528577836329826</v>
+        <v>0.03805249734937934</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1720732600.637965</v>
+        <v>1720880795.890913</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1762553963115263</v>
+        <v>0.1069193114367939</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03333342091935285</v>
+        <v>0.03143033736344677</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4249140855.924977</v>
+        <v>4843772563.777215</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09013253068095838</v>
+        <v>0.09106036465592916</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0343991079720724</v>
+        <v>0.03699599983334155</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3616132937.57865</v>
+        <v>3652019350.645996</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09610751271729423</v>
+        <v>0.08501871932357848</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02808813821672631</v>
+        <v>0.02674860893610152</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4914305516.413717</v>
+        <v>4938342457.850701</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1461099947971714</v>
+        <v>0.1625142526315492</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02271633796212146</v>
+        <v>0.01866036658636478</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1802081424.60745</v>
+        <v>2231227396.986411</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1234912904473628</v>
+        <v>0.1271758200453508</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0364745146085714</v>
+        <v>0.03497154866875134</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2411318866.4725</v>
+        <v>2004589250.572919</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1134724960481813</v>
+        <v>0.09870074229669629</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04703264270707603</v>
+        <v>0.05064021889188401</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3293334561.13673</v>
+        <v>3609436229.640878</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1542379531352866</v>
+        <v>0.1640717821371561</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04359197695241304</v>
+        <v>0.0463547318638441</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1919476727.595245</v>
+        <v>1809398695.061211</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1630757074243572</v>
+        <v>0.1713573110185825</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02104127538335446</v>
+        <v>0.02150444266356924</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1467684985.847461</v>
+        <v>1001094121.787786</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1863679013450361</v>
+        <v>0.1208264566458841</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04384015581959853</v>
+        <v>0.03294414124823537</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3029258599.297604</v>
+        <v>2793713131.906416</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1734544773637065</v>
+        <v>0.1209669436902134</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03407605746646316</v>
+        <v>0.03819598161034279</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2960249396.051948</v>
+        <v>2655359725.36464</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1329629920428059</v>
+        <v>0.1520566019092557</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02873785200607693</v>
+        <v>0.03297844652744642</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1610234229.791514</v>
+        <v>1480603654.736099</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08846588650646821</v>
+        <v>0.1031459672613114</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03738914037827981</v>
+        <v>0.03706609323790912</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1386925128.664935</v>
+        <v>1505776118.632421</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1940828266821615</v>
+        <v>0.1916207953519385</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06048855420064496</v>
+        <v>0.05737037696369653</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2439052492.959348</v>
+        <v>2221682871.289485</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09351697676889076</v>
+        <v>0.102607717153759</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04770965853754302</v>
+        <v>0.03771353716480067</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4261747790.699401</v>
+        <v>5034231539.514752</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1413532381933667</v>
+        <v>0.1287351450875058</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0384387584611587</v>
+        <v>0.03532122054295167</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1729438206.978465</v>
+        <v>2437144011.109973</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1539241401707322</v>
+        <v>0.1048584212538603</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03472181884198023</v>
+        <v>0.04288416334147435</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2335357393.112824</v>
+        <v>3152442640.306201</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09095231745573112</v>
+        <v>0.09127744742866291</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05100529192719445</v>
+        <v>0.05265807196764771</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1536691149.129372</v>
+        <v>2328446682.428947</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1289536096417566</v>
+        <v>0.1272693106335309</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04352394872344904</v>
+        <v>0.04472338785379751</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4167062350.44958</v>
+        <v>3986357814.71598</v>
       </c>
       <c r="F97" t="n">
-        <v>0.146026373685191</v>
+        <v>0.1517339608438512</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02258156367042213</v>
+        <v>0.01999864807189726</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2424193530.917559</v>
+        <v>2907621098.394512</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1164031045490351</v>
+        <v>0.1134068113620238</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0309768809633502</v>
+        <v>0.03039719280665011</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2993078817.331216</v>
+        <v>3365455522.971256</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09823767120181298</v>
+        <v>0.1197306796295304</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02299515048727499</v>
+        <v>0.02376334458084624</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3844035721.599167</v>
+        <v>4616063636.096779</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1465171302054</v>
+        <v>0.1165626597585573</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02022935764499337</v>
+        <v>0.02569264709316221</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3117197054.856094</v>
+        <v>2525104308.017057</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2218125899171418</v>
+        <v>0.1996265747345909</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03664875327862072</v>
+        <v>0.04094862789873736</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_232.xlsx
+++ b/output/fit_clients/fit_round_232.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2398873427.120292</v>
+        <v>1784076301.057938</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08661762033257059</v>
+        <v>0.08769633989017034</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04538471216888051</v>
+        <v>0.04172602040463157</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1812843157.562678</v>
+        <v>1927426922.510626</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1522950922884348</v>
+        <v>0.1637582387156456</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03959613728533844</v>
+        <v>0.04855880936387379</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4812883285.082774</v>
+        <v>4501343619.257195</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1152628135417404</v>
+        <v>0.1241453112670705</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03506073263535009</v>
+        <v>0.03811855961382598</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>126</v>
+      </c>
+      <c r="J4" t="n">
+        <v>231</v>
+      </c>
+      <c r="K4" t="n">
+        <v>105.7601078324562</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2560266661.513401</v>
+        <v>3864867207.536664</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07707674341787023</v>
+        <v>0.08402987250451864</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04675048674517834</v>
+        <v>0.04530108545228961</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>95</v>
+      </c>
+      <c r="J5" t="n">
+        <v>232</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2398007348.632555</v>
+        <v>1938662132.785221</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1380612003132519</v>
+        <v>0.1114868953865599</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05351935849172522</v>
+        <v>0.03789379988008024</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2885667983.67799</v>
+        <v>2583377007.812011</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07326484186988298</v>
+        <v>0.06682177241479202</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04636651225481352</v>
+        <v>0.04449661863882597</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3144954660.063397</v>
+        <v>3116358647.149491</v>
       </c>
       <c r="F8" t="n">
-        <v>0.191289795975954</v>
+        <v>0.1930845344448304</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02313380785887777</v>
+        <v>0.02883353102886539</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>66</v>
+      </c>
+      <c r="J8" t="n">
+        <v>230</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1485825712.963522</v>
+        <v>2200390850.802686</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1849043016256775</v>
+        <v>0.1670822335760487</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02850988541526756</v>
+        <v>0.02424844144959136</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5429661693.079113</v>
+        <v>5682350096.871943</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1346635224454164</v>
+        <v>0.2032734177186677</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03434309779275985</v>
+        <v>0.0345150032828418</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>211</v>
+      </c>
+      <c r="J10" t="n">
+        <v>232</v>
+      </c>
+      <c r="K10" t="n">
+        <v>114.1031906132787</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3626923774.082184</v>
+        <v>4171399791.04569</v>
       </c>
       <c r="F11" t="n">
-        <v>0.124522334967702</v>
+        <v>0.1798996822529313</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0327687244581032</v>
+        <v>0.03698124788657894</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>96</v>
+      </c>
+      <c r="J11" t="n">
+        <v>232</v>
+      </c>
+      <c r="K11" t="n">
+        <v>118.2923636323789</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2525399760.975455</v>
+        <v>3158911302.761551</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1995816273579124</v>
+        <v>0.1812696955003794</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04339543360281831</v>
+        <v>0.04199525038308675</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4821156003.184998</v>
+        <v>3225442435.404053</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0932923708573701</v>
+        <v>0.07459329598281482</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02626437444876624</v>
+        <v>0.02793325322282819</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>117</v>
+      </c>
+      <c r="J13" t="n">
+        <v>230</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2870633572.263981</v>
+        <v>2760704236.324636</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1287332477979234</v>
+        <v>0.1228957250120675</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03492031862669257</v>
+        <v>0.02942589752130485</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>44</v>
+      </c>
+      <c r="J14" t="n">
+        <v>227</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1198097011.956954</v>
+        <v>1681956636.786815</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1010638409554848</v>
+        <v>0.08382240545136338</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03109523767681382</v>
+        <v>0.03125841511453211</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2885790350.167806</v>
+        <v>2353315286.07036</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1058224713251788</v>
+        <v>0.111430527973987</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03492916683788321</v>
+        <v>0.03505048695078556</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3233022249.526556</v>
+        <v>3601394132.208775</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1617699024411133</v>
+        <v>0.1717690545832652</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04289394350534162</v>
+        <v>0.0445235389999015</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>112</v>
+      </c>
+      <c r="J17" t="n">
+        <v>231</v>
+      </c>
+      <c r="K17" t="n">
+        <v>81.18949362605221</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2447193269.921588</v>
+        <v>3326589930.640664</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1762859435966385</v>
+        <v>0.121763245044598</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02941759874377032</v>
+        <v>0.02280878465775509</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>854658520.0788727</v>
+        <v>1258885089.871007</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1198829785907545</v>
+        <v>0.1363190596722761</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02190877060621842</v>
+        <v>0.02035419468328897</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2676019728.481589</v>
+        <v>2145649977.335956</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1201765475701982</v>
+        <v>0.1309468800425197</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02655962975093545</v>
+        <v>0.02473899348060609</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1709730621.794092</v>
+        <v>1684670531.601975</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09264241807388461</v>
+        <v>0.09541254927935008</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04022085431611526</v>
+        <v>0.03320171911894338</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1209,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2553186827.189406</v>
+        <v>2500279689.883859</v>
       </c>
       <c r="F22" t="n">
-        <v>0.142117631260911</v>
+        <v>0.1444755019088928</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05285589596041507</v>
+        <v>0.05733176903636358</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>59</v>
+      </c>
+      <c r="J22" t="n">
+        <v>231</v>
+      </c>
+      <c r="K22" t="n">
+        <v>39.47306500388802</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1313764491.445457</v>
+        <v>962019224.1778203</v>
       </c>
       <c r="F23" t="n">
-        <v>0.161930263016609</v>
+        <v>0.1194173467172121</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03994018012638725</v>
+        <v>0.04943303315806533</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3028380827.046471</v>
+        <v>2736038661.606716</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1091269964528537</v>
+        <v>0.1183792787725459</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0264745989138415</v>
+        <v>0.02955505453562994</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1234696816.189148</v>
+        <v>1294040290.62751</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08294727338128836</v>
+        <v>0.09693855828321263</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02234368049123419</v>
+        <v>0.02906246301716558</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>881005276.6250167</v>
+        <v>1397996898.742874</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1018850015219116</v>
+        <v>0.114169408863325</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03074765615062934</v>
+        <v>0.03050659870072323</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4663620433.718313</v>
+        <v>3552552196.506512</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1038980047628989</v>
+        <v>0.1536879946842692</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01764992084562417</v>
+        <v>0.01762624055698811</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>93</v>
+      </c>
+      <c r="J27" t="n">
+        <v>232</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2559537357.476992</v>
+        <v>2881422238.703243</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1219999845419905</v>
+        <v>0.1087576303680345</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04378827272231992</v>
+        <v>0.04423022290633407</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>48</v>
+      </c>
+      <c r="J28" t="n">
+        <v>230</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4291692370.151661</v>
+        <v>4370834802.567739</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1011039228487441</v>
+        <v>0.1285090367863843</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04280627421831142</v>
+        <v>0.0363910094125215</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>221</v>
+      </c>
+      <c r="J29" t="n">
+        <v>232</v>
+      </c>
+      <c r="K29" t="n">
+        <v>118.8674721969348</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2368320523.11825</v>
+        <v>1663997426.072733</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1025750534667383</v>
+        <v>0.1341746556629008</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0373261977759677</v>
+        <v>0.03185126208616678</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1243067358.343294</v>
+        <v>1181896044.869504</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07428781548365339</v>
+        <v>0.09049664933177616</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04665683298154735</v>
+        <v>0.05196588287738034</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1458403322.637665</v>
+        <v>1260192753.148221</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09139304988588647</v>
+        <v>0.1018998300407218</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03508043412996477</v>
+        <v>0.03376897922514285</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2744544499.109853</v>
+        <v>3050730288.160009</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2091577611954642</v>
+        <v>0.1276721286363287</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05327386496474421</v>
+        <v>0.05567545694646045</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1005049548.463809</v>
+        <v>1034173943.76366</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09260987915931325</v>
+        <v>0.1080426868648836</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02457930065691025</v>
+        <v>0.02438146483524076</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>954977383.8896704</v>
+        <v>1073946962.920385</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09511935473375864</v>
+        <v>0.09849918458140794</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03011469241291065</v>
+        <v>0.02824591485542133</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2887005951.448715</v>
+        <v>3050447436.387954</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1568999487709256</v>
+        <v>0.1726218382788382</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02294276522632601</v>
+        <v>0.02361381556418579</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2059663215.059106</v>
+        <v>2931212632.567926</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06922697195309052</v>
+        <v>0.07782667626561715</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03739917357798887</v>
+        <v>0.03221355279649505</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1342153110.118983</v>
+        <v>1839352731.922057</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1125381721638155</v>
+        <v>0.1179625723449721</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03465439467774013</v>
+        <v>0.0350693384909197</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2121605834.570427</v>
+        <v>2218673379.472123</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1248914373193755</v>
+        <v>0.1590065421914959</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03253728318344836</v>
+        <v>0.02065083731014055</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1429410908.443867</v>
+        <v>1814579123.191894</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1507892994532358</v>
+        <v>0.1480985508671002</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0434337479953286</v>
+        <v>0.04537859511127901</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2821253611.502184</v>
+        <v>2309652043.905877</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1535456901192317</v>
+        <v>0.1054791554401322</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03748785027048727</v>
+        <v>0.03209004933021156</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3787108131.220546</v>
+        <v>4118653803.145171</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08874310230529653</v>
+        <v>0.1101306996082617</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04338750136343394</v>
+        <v>0.03971798806170079</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>94</v>
+      </c>
+      <c r="J42" t="n">
+        <v>232</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2643178940.870343</v>
+        <v>2503289147.896653</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1787788337222517</v>
+        <v>0.196043002197293</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02371032808473602</v>
+        <v>0.02049401139728514</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1558223316.999308</v>
+        <v>1607463034.306122</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06896396384875583</v>
+        <v>0.08544848700599059</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02243795721803047</v>
+        <v>0.02898136248828875</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1910622304.275689</v>
+        <v>2253611878.892927</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1763435886997231</v>
+        <v>0.1344768361452304</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04848558891961481</v>
+        <v>0.03991326706578869</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3781628009.430877</v>
+        <v>4084853144.22517</v>
       </c>
       <c r="F46" t="n">
-        <v>0.129402808731102</v>
+        <v>0.1271121272861464</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05361647519582248</v>
+        <v>0.05447843104230302</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>133</v>
+      </c>
+      <c r="J46" t="n">
+        <v>232</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4886620244.542937</v>
+        <v>5167887667.00865</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1684017649531771</v>
+        <v>0.1242693173022456</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05781195422347593</v>
+        <v>0.04927858608973922</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>103</v>
+      </c>
+      <c r="J47" t="n">
+        <v>232</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2123,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3573488883.458851</v>
+        <v>3549099039.7602</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08264184519578925</v>
+        <v>0.1041669593475441</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03551085576482636</v>
+        <v>0.02873463670925124</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>112</v>
+      </c>
+      <c r="J48" t="n">
+        <v>232</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1641398705.778013</v>
+        <v>1857270388.614682</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1646629677174747</v>
+        <v>0.1335245527171551</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04444864463801002</v>
+        <v>0.03827325927210041</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4221582368.179296</v>
+        <v>4170843004.877728</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1372142427645314</v>
+        <v>0.1298716247974502</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03756548253580462</v>
+        <v>0.03744625388433642</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>76</v>
+      </c>
+      <c r="J50" t="n">
+        <v>232</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1134096562.462172</v>
+        <v>1163335341.64538</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1530127590711422</v>
+        <v>0.1360225432096315</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03616423164600444</v>
+        <v>0.05122777384559363</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4145155493.455267</v>
+        <v>4008649294.583616</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1056041153263909</v>
+        <v>0.1364815987989668</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05610919608912755</v>
+        <v>0.05578678785925242</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>153</v>
+      </c>
+      <c r="J52" t="n">
+        <v>231</v>
+      </c>
+      <c r="K52" t="n">
+        <v>107.252402840098</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3345383771.1219</v>
+        <v>2684138644.295443</v>
       </c>
       <c r="F53" t="n">
-        <v>0.125394913438009</v>
+        <v>0.2025368907797973</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02978541045577479</v>
+        <v>0.03021016356574403</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>32</v>
+      </c>
+      <c r="J53" t="n">
+        <v>231</v>
+      </c>
+      <c r="K53" t="n">
+        <v>46.90473598256901</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4109832466.074569</v>
+        <v>4228510518.538986</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1687428960666992</v>
+        <v>0.162730786488975</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03247042042283085</v>
+        <v>0.04054983457490072</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>124</v>
+      </c>
+      <c r="J54" t="n">
+        <v>231</v>
+      </c>
+      <c r="K54" t="n">
+        <v>109.2398589464556</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2374,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3341873626.314206</v>
+        <v>4446741641.699734</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2108245884400653</v>
+        <v>0.1973649046310597</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02884324211477736</v>
+        <v>0.0204168121529148</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>104</v>
+      </c>
+      <c r="J55" t="n">
+        <v>231</v>
+      </c>
+      <c r="K55" t="n">
+        <v>106.6403409260958</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1439856731.939939</v>
+        <v>1797955410.856164</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1261108217447689</v>
+        <v>0.1636749120377209</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05319387534833335</v>
+        <v>0.04781313149116997</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2446,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2903373313.806708</v>
+        <v>3847254286.073623</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1751065793443845</v>
+        <v>0.176180412344635</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02152073299138933</v>
+        <v>0.02013127253011365</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>91</v>
+      </c>
+      <c r="J57" t="n">
+        <v>231</v>
+      </c>
+      <c r="K57" t="n">
+        <v>100.4740810952109</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1646296983.965205</v>
+        <v>1382336941.519308</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1932706434583814</v>
+        <v>0.1357262325438368</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02916374243134743</v>
+        <v>0.03512798661310243</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4098608973.466802</v>
+        <v>5309364672.439149</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1266637972140957</v>
+        <v>0.08875412019657007</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03732620842379727</v>
+        <v>0.03050400780220761</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>112</v>
+      </c>
+      <c r="J59" t="n">
+        <v>232</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2553,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3570160105.119227</v>
+        <v>2868452108.598516</v>
       </c>
       <c r="F60" t="n">
-        <v>0.158133686871481</v>
+        <v>0.1400506014448484</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02322497438043145</v>
+        <v>0.03001616870118521</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>33</v>
+      </c>
+      <c r="J60" t="n">
+        <v>231</v>
+      </c>
+      <c r="K60" t="n">
+        <v>59.79515343064647</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2207449175.382782</v>
+        <v>2373960196.266737</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1237093737961063</v>
+        <v>0.1338063317689629</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02520624077855997</v>
+        <v>0.0306128117245182</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1622945144.120797</v>
+        <v>1822696926.594059</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1913598763023137</v>
+        <v>0.1183921578824781</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04755645419197038</v>
+        <v>0.04228019214236546</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4045890151.100103</v>
+        <v>4643442337.916645</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07740078240662755</v>
+        <v>0.08278021350555526</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0450736076242329</v>
+        <v>0.034771697980936</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>113</v>
+      </c>
+      <c r="J63" t="n">
+        <v>231</v>
+      </c>
+      <c r="K63" t="n">
+        <v>102.5933552165308</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5401149601.179227</v>
+        <v>4977852550.853386</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1844846099975886</v>
+        <v>0.1487224659457865</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03272017819209991</v>
+        <v>0.02214986702910638</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>114</v>
+      </c>
+      <c r="J64" t="n">
+        <v>232</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5632231529.672043</v>
+        <v>3615180798.092801</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1197585469026789</v>
+        <v>0.156951488604247</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02929635976078349</v>
+        <v>0.02061457925332926</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>185</v>
+      </c>
+      <c r="J65" t="n">
+        <v>231</v>
+      </c>
+      <c r="K65" t="n">
+        <v>89.73559116012112</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4187514236.470075</v>
+        <v>5709115439.071767</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1419029038542746</v>
+        <v>0.1489487578919775</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03825190198171936</v>
+        <v>0.04356326771382215</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>114</v>
+      </c>
+      <c r="J66" t="n">
+        <v>232</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3315442382.690212</v>
+        <v>3403078402.53897</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0840843176445714</v>
+        <v>0.088035454774493</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03814091609905838</v>
+        <v>0.03381203042721125</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>226</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5138479683.681287</v>
+        <v>4497886389.334687</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1471473925737097</v>
+        <v>0.1456389234875671</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04173060733486528</v>
+        <v>0.04348100015732698</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>117</v>
+      </c>
+      <c r="J68" t="n">
+        <v>231</v>
+      </c>
+      <c r="K68" t="n">
+        <v>108.2308311604007</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2093872573.978781</v>
+        <v>2323414155.865059</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1717220675962972</v>
+        <v>0.1693730568935699</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03654343410671781</v>
+        <v>0.05427339562035282</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2905,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3019971714.287552</v>
+        <v>2337133960.183508</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1033642686679813</v>
+        <v>0.0641944374458379</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03677934923375627</v>
+        <v>0.04738853571520945</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>36</v>
+      </c>
+      <c r="J70" t="n">
+        <v>231</v>
+      </c>
+      <c r="K70" t="n">
+        <v>33.22208469775201</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2948,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5256109647.04268</v>
+        <v>5528455961.807126</v>
       </c>
       <c r="F71" t="n">
-        <v>0.118189295505289</v>
+        <v>0.1231881905828047</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02156788220292085</v>
+        <v>0.02667629065340186</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>176</v>
+      </c>
+      <c r="J71" t="n">
+        <v>232</v>
+      </c>
+      <c r="K71" t="n">
+        <v>111.2991758745439</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1991485294.542714</v>
+        <v>1827512929.355752</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07442826082435426</v>
+        <v>0.07959569910695126</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04842177397159599</v>
+        <v>0.04751275002762278</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2659358908.384831</v>
+        <v>3002220439.891919</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07387637550206635</v>
+        <v>0.08191962781535118</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0456578489004882</v>
+        <v>0.04400604718933519</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3648815884.733327</v>
+        <v>2920883179.207092</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1710980437173443</v>
+        <v>0.1347803329218446</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03229170758533664</v>
+        <v>0.02351675020714675</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>67</v>
+      </c>
+      <c r="J74" t="n">
+        <v>229</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1586933146.978518</v>
+        <v>1767719610.747362</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1531680671805784</v>
+        <v>0.1358107556529789</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03689720615593291</v>
+        <v>0.0339885148351129</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4461674732.323925</v>
+        <v>4370807148.5841</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0957224220939869</v>
+        <v>0.09631415565844632</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03196260714069682</v>
+        <v>0.0312518388029084</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>107</v>
+      </c>
+      <c r="J76" t="n">
+        <v>232</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1629269639.06568</v>
+        <v>1829123068.759247</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1473604839116923</v>
+        <v>0.1691199499877512</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02040683464901324</v>
+        <v>0.01949672377841928</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2936767223.544082</v>
+        <v>3996699041.184022</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1248185243035443</v>
+        <v>0.1308173038856895</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03805249734937934</v>
+        <v>0.04291264541273547</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>116</v>
+      </c>
+      <c r="J78" t="n">
+        <v>232</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1720880795.890913</v>
+        <v>1361072553.398403</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1069193114367939</v>
+        <v>0.1141034268443255</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03143033736344677</v>
+        <v>0.02825643770270604</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4843772563.777215</v>
+        <v>4018532921.965841</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09106036465592916</v>
+        <v>0.09747971394590366</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03699599983334155</v>
+        <v>0.0321007714325043</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>113</v>
+      </c>
+      <c r="J80" t="n">
+        <v>231</v>
+      </c>
+      <c r="K80" t="n">
+        <v>80.69069038485652</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3652019350.645996</v>
+        <v>4393518505.64251</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08501871932357848</v>
+        <v>0.08532310348773783</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02674860893610152</v>
+        <v>0.0263251825743671</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>107</v>
+      </c>
+      <c r="J81" t="n">
+        <v>231</v>
+      </c>
+      <c r="K81" t="n">
+        <v>95.00818160228602</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4938342457.850701</v>
+        <v>3984796612.569693</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1625142526315492</v>
+        <v>0.1816115921186574</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01866036658636478</v>
+        <v>0.02209680013991084</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>174</v>
+      </c>
+      <c r="J82" t="n">
+        <v>232</v>
+      </c>
+      <c r="K82" t="n">
+        <v>111.2550035630546</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3376,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2231227396.986411</v>
+        <v>2288436379.882087</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1271758200453508</v>
+        <v>0.1260388686289462</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03497154866875134</v>
+        <v>0.04434516882431631</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2004589250.572919</v>
+        <v>1707167772.771584</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09870074229669629</v>
+        <v>0.1147908884859959</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05064021889188401</v>
+        <v>0.04275278358969957</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3446,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3609436229.640878</v>
+        <v>2753142610.35848</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1640717821371561</v>
+        <v>0.1756665829720453</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0463547318638441</v>
+        <v>0.04927820616733544</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>31</v>
+      </c>
+      <c r="J85" t="n">
+        <v>225</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1809398695.061211</v>
+        <v>2754550021.078646</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1713573110185825</v>
+        <v>0.1416103462101721</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02150444266356924</v>
+        <v>0.02210902089295129</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1001094121.787786</v>
+        <v>1186646917.355952</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1208264566458841</v>
+        <v>0.1490571195042955</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03294414124823537</v>
+        <v>0.03766279341987561</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2793713131.906416</v>
+        <v>3424934998.640015</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1209669436902134</v>
+        <v>0.1161664836213873</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03819598161034279</v>
+        <v>0.03583892140027622</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>33</v>
+      </c>
+      <c r="J88" t="n">
+        <v>232</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2655359725.36464</v>
+        <v>3209432794.718297</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1520566019092557</v>
+        <v>0.1082810785953056</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03297844652744642</v>
+        <v>0.03149823222752475</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1480603654.736099</v>
+        <v>1330598832.222001</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1031459672613114</v>
+        <v>0.1023862159214032</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03706609323790912</v>
+        <v>0.04509937571227156</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3656,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1505776118.632421</v>
+        <v>1762024562.176916</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1916207953519385</v>
+        <v>0.1788897181434923</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05737037696369653</v>
+        <v>0.05453893505066466</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2221682871.289485</v>
+        <v>2245395819.114864</v>
       </c>
       <c r="F92" t="n">
-        <v>0.102607717153759</v>
+        <v>0.1045610445332817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03771353716480067</v>
+        <v>0.04178417176507025</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5034231539.514752</v>
+        <v>3327905571.561471</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1287351450875058</v>
+        <v>0.1418443545289806</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03532122054295167</v>
+        <v>0.04512044498727798</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>103</v>
+      </c>
+      <c r="J93" t="n">
+        <v>230</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2437144011.109973</v>
+        <v>2361157613.314513</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1048584212538603</v>
+        <v>0.1355645929975655</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04288416334147435</v>
+        <v>0.03355421302220173</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3152442640.306201</v>
+        <v>2897681966.987496</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09127744742866291</v>
+        <v>0.1344620900138402</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05265807196764771</v>
+        <v>0.04720193824235139</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2328446682.428947</v>
+        <v>2166369524.413243</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1272693106335309</v>
+        <v>0.09686926650609196</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04472338785379751</v>
+        <v>0.04661217745536747</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3986357814.71598</v>
+        <v>5018327810.120966</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1517339608438512</v>
+        <v>0.1193195255924077</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01999864807189726</v>
+        <v>0.02499158581525067</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>112</v>
+      </c>
+      <c r="J97" t="n">
+        <v>232</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2907621098.394512</v>
+        <v>2676866014.224807</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1134068113620238</v>
+        <v>0.1061622084738396</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03039719280665011</v>
+        <v>0.02077754460732105</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>56</v>
+      </c>
+      <c r="J98" t="n">
+        <v>229</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3365455522.971256</v>
+        <v>2819255726.697797</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1197306796295304</v>
+        <v>0.1234642491985023</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02376334458084624</v>
+        <v>0.03271597563228249</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4616063636.096779</v>
+        <v>4447657800.038945</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1165626597585573</v>
+        <v>0.1602758940575215</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02569264709316221</v>
+        <v>0.02744969321363494</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>97</v>
+      </c>
+      <c r="J100" t="n">
+        <v>232</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2525104308.017057</v>
+        <v>2736477556.541013</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1996265747345909</v>
+        <v>0.1608650439799248</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04094862789873736</v>
+        <v>0.03594343516106421</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
